--- a/Experiments/fibre_composition.xlsx
+++ b/Experiments/fibre_composition.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnick\Documents\IIB Engineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnick\Documents\IIB Engineering\Project\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BD89D-F63C-43E6-BC7D-A830479C2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D573A-8F11-489D-B05E-AEF68F60A789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fibre Spinning" sheetId="1" r:id="rId1"/>
-    <sheet name="Pump Calibration" sheetId="4" r:id="rId2"/>
-    <sheet name="Magnet" sheetId="3" r:id="rId3"/>
-    <sheet name="Preparing Solutions" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Pump Calibration" sheetId="4" r:id="rId3"/>
+    <sheet name="Magnet" sheetId="3" r:id="rId4"/>
+    <sheet name="Preparing Solutions" sheetId="2" r:id="rId5"/>
+    <sheet name="Preparing Solutions (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Iron Oxide, wt%</t>
   </si>
@@ -216,6 +218,42 @@
   </si>
   <si>
     <t>Mass of water [g]</t>
+  </si>
+  <si>
+    <t>Mass of iron added [g]</t>
+  </si>
+  <si>
+    <t>Polystyrene</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Solvent</t>
+  </si>
+  <si>
+    <t>DMF [uL]</t>
+  </si>
+  <si>
+    <t>Acetone [uL]</t>
+  </si>
+  <si>
+    <t>Solvent mass [mg]</t>
+  </si>
+  <si>
+    <t>Empty vial mass [mg]</t>
+  </si>
+  <si>
+    <t>Mass polystyrene [mg]</t>
+  </si>
+  <si>
+    <t>Mass iron [mg]</t>
+  </si>
+  <si>
+    <t>Small jar</t>
+  </si>
+  <si>
+    <t>Large jar</t>
   </si>
 </sst>
 </file>
@@ -261,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,7 +400,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3"/>
@@ -370,13 +414,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,25 +718,25 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" customWidth="1"/>
-    <col min="5" max="5" width="38.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -748,7 +806,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -769,7 +827,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -790,7 +848,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -811,7 +869,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -832,13 +890,13 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -852,7 +910,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,7 +928,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -888,7 +946,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -908,7 +966,7 @@
         <v>22.4284</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,7 +986,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -948,7 +1006,7 @@
         <v>3.0030000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E15" s="9" t="s">
         <v>44</v>
       </c>
@@ -956,7 +1014,7 @@
         <v>19.954000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
@@ -964,7 +1022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="9" t="s">
         <v>46</v>
       </c>
@@ -984,19 +1042,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39AFFA-3341-44CD-B70F-AACE3FC92774}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="16">
+        <f>$B$16*A2/(1-A2)</f>
+        <v>226.67500000000004</v>
+      </c>
+      <c r="D2" s="15">
+        <f>($B$16 + C2) * B2/(1-B2)</f>
+        <v>283.34375</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D9" si="0">($B$16 + C3) * B3/(1-B3)</f>
+        <v>388.58571428571429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
+        <v>604.46666666666681</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" ref="C5:C10" si="1">$B$16*A5/(1-A5)</f>
+        <v>388.58571428571429</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>323.82142857142856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>388.58571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>604.46666666666681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" ref="C8:C10" si="2">$B$16*A8/(1-A8)</f>
+        <v>604.46666666666681</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>377.79166666666674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>388.58571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15">
+        <f>($B$16 + C10) * B10/(1-B10)</f>
+        <v>604.46666666666681</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>906.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>15015.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C222EAB9-F685-4E7F-8A26-782CAA1A7A6F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1004,17 +1267,17 @@
         <v>63.104999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1024,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4C6172-2BBA-4745-BBF0-1C9CD2C2020F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1032,12 +1295,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1045,7 +1308,7 @@
         <v>22.547000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1053,7 +1316,7 @@
         <v>49.773000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1061,7 +1324,7 @@
         <v>27.393899999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1070,7 +1333,7 @@
         <v>22.379100000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1342,7 @@
         <v>0.16789999999999594</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1093,33 +1356,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502B9DB-0DE6-44A9-A428-9C19FC00D91B}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="12" width="17.26953125" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="12" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="7" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1219,7 +1482,7 @@
         <v>17.208500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
@@ -1272,7 +1535,7 @@
         <v>17.530799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0.2</v>
       </c>
@@ -1325,7 +1588,7 @@
         <v>17.8507</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.3</v>
       </c>
@@ -1378,7 +1641,7 @@
         <v>17.7438</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.4</v>
       </c>
@@ -1429,6 +1692,117 @@
       </c>
       <c r="O6">
         <v>18.253299999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54869D5D-6F73-41B1-98BF-4DA5212E4220}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="12" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>15.138999999999999</v>
+      </c>
+      <c r="C2">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>1.8010000000000019</v>
+      </c>
+      <c r="E2">
+        <v>0.3972</v>
+      </c>
+      <c r="F2">
+        <v>17.335100000000001</v>
+      </c>
+      <c r="G2">
+        <f>F2-B2</f>
+        <v>2.1961000000000013</v>
+      </c>
+      <c r="J2">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>0.4/(1-0.4) * G2</f>
+        <v>1.4640666666666677</v>
       </c>
     </row>
   </sheetData>
